--- a/core/src/test/resources/llm-bench/dataset-soccer.xlsx
+++ b/core/src/test/resources/llm-bench/dataset-soccer.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donatello/Projects/research/galois/core/src/test/resources/llm-bench/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C923EB6B-921E-2C47-8F53-F072D75C5AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4348FC-4581-7C40-BA00-E9739032E355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29160" windowHeight="26580" xr2:uid="{69FF5F04-7B65-6940-9421-7D2AB15A84D5}"/>
   </bookViews>
   <sheets>
     <sheet name="queries" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="281">
   <si>
     <t>db_id</t>
   </si>
@@ -139,12 +138,6 @@
   </si>
   <si>
     <t>SELECT surname, jersey_number_euro2016, date_of_birth_iso, club_serie_a_2016_2017 FROM italy_euro2016_squad</t>
-  </si>
-  <si>
-    <t>SQL Query</t>
-  </si>
-  <si>
-    <t>Prompt</t>
   </si>
   <si>
     <t>SELECT surname, jersey_number_euro2016, date_of_birth_iso, club_serie_a_2016_2017, appearances_serie_a_2016_2017 FROM italy_euro2016_squad</t>
@@ -1316,9 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C19F48-26D9-954E-9A15-C60C12E50EE5}">
   <dimension ref="A1:T697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59:E88"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1639,7 +1630,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -1648,10 +1639,10 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>23</v>
@@ -1662,7 +1653,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -1671,10 +1662,10 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>23</v>
@@ -1685,7 +1676,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1694,10 +1685,10 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8">
         <v>23</v>
@@ -1708,7 +1699,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1717,10 +1708,10 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F9">
         <v>23</v>
@@ -1731,7 +1722,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -1740,10 +1731,10 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10">
         <v>23</v>
@@ -1754,7 +1745,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -1763,10 +1754,10 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11">
         <v>23</v>
@@ -1777,7 +1768,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -1786,10 +1777,10 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F12">
         <v>23</v>
@@ -1800,7 +1791,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -1809,10 +1800,10 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13">
         <v>23</v>
@@ -1823,7 +1814,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -1832,10 +1823,10 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14">
         <v>23</v>
@@ -1846,7 +1837,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -1855,10 +1846,10 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F15">
         <v>23</v>
@@ -1869,7 +1860,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -1878,10 +1869,10 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16">
         <v>23</v>
@@ -1892,7 +1883,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -1901,10 +1892,10 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F17">
         <v>23</v>
@@ -1915,7 +1906,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -1924,10 +1915,10 @@
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F18">
         <v>23</v>
@@ -1938,7 +1929,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -1947,10 +1938,10 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F19">
         <v>23</v>
@@ -1961,7 +1952,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1970,10 +1961,10 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F20">
         <v>23</v>
@@ -1984,7 +1975,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1993,10 +1984,10 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F21">
         <v>23</v>
@@ -2007,7 +1998,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -2016,10 +2007,10 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F22">
         <v>23</v>
@@ -2030,7 +2021,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -2039,10 +2030,10 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F23">
         <v>23</v>
@@ -2053,7 +2044,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -2062,10 +2053,10 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F24">
         <v>23</v>
@@ -2076,7 +2067,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
@@ -2085,10 +2076,10 @@
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F25">
         <v>23</v>
@@ -2099,7 +2090,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -2108,10 +2099,10 @@
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F26">
         <v>23</v>
@@ -2122,7 +2113,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -2131,10 +2122,10 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F27">
         <v>23</v>
@@ -2145,7 +2136,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -2154,10 +2145,10 @@
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F28">
         <v>23</v>
@@ -2168,7 +2159,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -2177,10 +2168,10 @@
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F29">
         <v>23</v>
@@ -2191,7 +2182,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -2200,10 +2191,10 @@
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F30">
         <v>23</v>
@@ -2214,7 +2205,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
@@ -2223,10 +2214,10 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F31">
         <v>23</v>
@@ -2237,7 +2228,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
@@ -2246,10 +2237,10 @@
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F32">
         <v>23</v>
@@ -2260,7 +2251,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
@@ -2269,10 +2260,10 @@
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F33">
         <v>23</v>
@@ -2283,7 +2274,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
@@ -2292,10 +2283,10 @@
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F34">
         <v>23</v>
@@ -2306,7 +2297,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B35" t="s">
         <v>21</v>
@@ -2315,10 +2306,10 @@
         <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F35">
         <v>23</v>
@@ -2329,7 +2320,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B36" t="s">
         <v>21</v>
@@ -2338,10 +2329,10 @@
         <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F36">
         <v>23</v>
@@ -2352,7 +2343,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
@@ -2361,10 +2352,10 @@
         <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F37">
         <v>23</v>
@@ -2375,7 +2366,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B38" t="s">
         <v>21</v>
@@ -2384,10 +2375,10 @@
         <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F38">
         <v>23</v>
@@ -2398,7 +2389,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B39" t="s">
         <v>21</v>
@@ -2407,10 +2398,10 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F39">
         <v>23</v>
@@ -2421,7 +2412,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
@@ -2430,10 +2421,10 @@
         <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F40">
         <v>23</v>
@@ -2444,7 +2435,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
@@ -2453,10 +2444,10 @@
         <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F41">
         <v>23</v>
@@ -2467,7 +2458,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
@@ -2476,10 +2467,10 @@
         <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F42">
         <v>23</v>
@@ -2490,7 +2481,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B43" t="s">
         <v>21</v>
@@ -2499,10 +2490,10 @@
         <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F43">
         <v>23</v>
@@ -2513,7 +2504,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
@@ -2522,10 +2513,10 @@
         <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F44">
         <v>23</v>
@@ -2536,7 +2527,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
@@ -2545,10 +2536,10 @@
         <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F45">
         <v>23</v>
@@ -2559,7 +2550,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
@@ -2568,10 +2559,10 @@
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F46">
         <v>23</v>
@@ -2582,7 +2573,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B47" t="s">
         <v>21</v>
@@ -2591,10 +2582,10 @@
         <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F47">
         <v>23</v>
@@ -2605,7 +2596,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
@@ -2614,10 +2605,10 @@
         <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F48">
         <v>23</v>
@@ -2628,7 +2619,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
@@ -2637,10 +2628,10 @@
         <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F49">
         <v>23</v>
@@ -2651,7 +2642,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
@@ -2660,10 +2651,10 @@
         <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F50">
         <v>23</v>
@@ -2674,7 +2665,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B51" t="s">
         <v>21</v>
@@ -2683,10 +2674,10 @@
         <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F51">
         <v>23</v>
@@ -2697,7 +2688,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
@@ -2706,10 +2697,10 @@
         <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E52" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F52">
         <v>23</v>
@@ -2720,7 +2711,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
@@ -2729,10 +2720,10 @@
         <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F53">
         <v>23</v>
@@ -2743,7 +2734,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
@@ -2752,10 +2743,10 @@
         <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F54">
         <v>23</v>
@@ -2766,7 +2757,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B55" t="s">
         <v>21</v>
@@ -2775,10 +2766,10 @@
         <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E55" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F55">
         <v>23</v>
@@ -2789,7 +2780,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B56" t="s">
         <v>21</v>
@@ -2798,10 +2789,10 @@
         <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E56" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F56">
         <v>23</v>
@@ -2812,7 +2803,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B57" t="s">
         <v>21</v>
@@ -2821,10 +2812,10 @@
         <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F57">
         <v>23</v>
@@ -2835,7 +2826,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
@@ -2844,10 +2835,10 @@
         <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E58" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F58">
         <v>23</v>
@@ -2858,7 +2849,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B59" t="s">
         <v>21</v>
@@ -2867,10 +2858,10 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F59">
         <v>23</v>
@@ -2881,7 +2872,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
@@ -2890,10 +2881,10 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F60">
         <v>23</v>
@@ -2904,7 +2895,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B61" t="s">
         <v>21</v>
@@ -2913,10 +2904,10 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F61">
         <v>23</v>
@@ -2927,7 +2918,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
@@ -2936,10 +2927,10 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F62">
         <v>23</v>
@@ -2950,7 +2941,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B63" t="s">
         <v>21</v>
@@ -2959,10 +2950,10 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F63">
         <v>23</v>
@@ -2973,7 +2964,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B64" t="s">
         <v>21</v>
@@ -2982,10 +2973,10 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F64">
         <v>23</v>
@@ -2996,7 +2987,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
@@ -3005,10 +2996,10 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F65">
         <v>23</v>
@@ -3019,7 +3010,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
@@ -3028,10 +3019,10 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F66">
         <v>23</v>
@@ -3042,7 +3033,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B67" t="s">
         <v>21</v>
@@ -3051,10 +3042,10 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F67">
         <v>23</v>
@@ -3065,7 +3056,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B68" t="s">
         <v>21</v>
@@ -3074,10 +3065,10 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F68">
         <v>23</v>
@@ -3088,7 +3079,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B69" t="s">
         <v>21</v>
@@ -3097,10 +3088,10 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F69">
         <v>23</v>
@@ -3111,7 +3102,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B70" t="s">
         <v>21</v>
@@ -3120,10 +3111,10 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F70">
         <v>23</v>
@@ -3134,7 +3125,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B71" t="s">
         <v>21</v>
@@ -3143,10 +3134,10 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F71">
         <v>23</v>
@@ -3157,7 +3148,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B72" t="s">
         <v>21</v>
@@ -3166,10 +3157,10 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F72">
         <v>23</v>
@@ -3180,7 +3171,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B73" t="s">
         <v>21</v>
@@ -3189,10 +3180,10 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F73">
         <v>23</v>
@@ -3203,7 +3194,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B74" t="s">
         <v>21</v>
@@ -3212,10 +3203,10 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F74">
         <v>23</v>
@@ -3226,7 +3217,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B75" t="s">
         <v>21</v>
@@ -3235,10 +3226,10 @@
         <v>22</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F75">
         <v>23</v>
@@ -3249,7 +3240,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B76" t="s">
         <v>21</v>
@@ -3258,10 +3249,10 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F76">
         <v>23</v>
@@ -3272,7 +3263,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B77" t="s">
         <v>21</v>
@@ -3281,10 +3272,10 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F77">
         <v>23</v>
@@ -3295,7 +3286,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B78" t="s">
         <v>21</v>
@@ -3304,10 +3295,10 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F78">
         <v>23</v>
@@ -3318,7 +3309,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B79" t="s">
         <v>21</v>
@@ -3327,10 +3318,10 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F79">
         <v>23</v>
@@ -3341,7 +3332,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B80" t="s">
         <v>21</v>
@@ -3350,10 +3341,10 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F80">
         <v>23</v>
@@ -3364,7 +3355,7 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B81" t="s">
         <v>21</v>
@@ -3373,10 +3364,10 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F81">
         <v>23</v>
@@ -3396,7 +3387,7 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B82" t="s">
         <v>21</v>
@@ -3405,10 +3396,10 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F82">
         <v>23</v>
@@ -3428,7 +3419,7 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B83" t="s">
         <v>21</v>
@@ -3437,10 +3428,10 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F83">
         <v>23</v>
@@ -3460,7 +3451,7 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B84" t="s">
         <v>21</v>
@@ -3469,10 +3460,10 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F84">
         <v>23</v>
@@ -3492,7 +3483,7 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B85" t="s">
         <v>21</v>
@@ -3501,10 +3492,10 @@
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F85">
         <v>23</v>
@@ -3524,7 +3515,7 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B86" t="s">
         <v>21</v>
@@ -3533,10 +3524,10 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F86">
         <v>23</v>
@@ -3556,7 +3547,7 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B87" t="s">
         <v>21</v>
@@ -3565,10 +3556,10 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F87">
         <v>23</v>
@@ -3588,7 +3579,7 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B88" t="s">
         <v>21</v>
@@ -3597,10 +3588,10 @@
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F88">
         <v>23</v>
@@ -4955,27 +4946,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAE0533-3161-4642-856F-39899E85F8C1}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>